--- a/Documentation/Examples Info.xlsx
+++ b/Documentation/Examples Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beta/Documents/Projects/PhaseJumpPro/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7017EDA-EE6F-5A4A-8399-0D0C48A885A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A302C04F-35B2-CC47-8046-78C99ED92C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12780" yWindow="6900" windowWidth="26840" windowHeight="15940" xr2:uid="{7CEE1DF2-E85E-2A49-9171-D7BCB498819B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -488,7 +488,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -606,6 +606,9 @@
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="B14" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -626,6 +629,9 @@
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">

--- a/Documentation/Examples Info.xlsx
+++ b/Documentation/Examples Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beta/Documents/Projects/PhaseJumpPro/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A302C04F-35B2-CC47-8046-78C99ED92C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8864C916-F613-C545-835B-1AD6CFBDCE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12780" yWindow="6900" windowWidth="26840" windowHeight="15940" xr2:uid="{7CEE1DF2-E85E-2A49-9171-D7BCB498819B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t>Path Layout Example</t>
-  </si>
-  <si>
-    <t>Broken</t>
   </si>
 </sst>
 </file>
@@ -488,7 +485,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26" x14ac:dyDescent="0.3"/>
@@ -599,7 +596,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
